--- a/LTDE/EcoPlates/data/raw/KBS0711/KBS0711_L5.xlsx
+++ b/LTDE/EcoPlates/data/raw/KBS0711/KBS0711_L5.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="20120" windowHeight="10040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -500,11 +503,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1</v>
@@ -543,7 +548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,7 +592,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -631,7 +636,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -675,7 +680,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,7 +724,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -763,7 +768,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -807,7 +812,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -851,7 +856,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -897,30 +902,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>